--- a/Last_Updated.xlsx
+++ b/Last_Updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1150"/>
+  <dimension ref="A1:B1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11931,9 +11931,69 @@
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>44272.92305555556</v>
+        <v>44272.92305555557</v>
       </c>
       <c r="B1150" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>44273.69190972222</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>44273.69310185185</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>44273.70390046296</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>44273.70487268519</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>44273.72856481482</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>44273.72936342593</v>
+      </c>
+      <c r="B1156" t="inlineStr">
         <is>
           <t>finished</t>
         </is>

--- a/Last_Updated.xlsx
+++ b/Last_Updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2442"/>
+  <dimension ref="A1:B2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24859,6 +24859,66 @@
         </is>
       </c>
     </row>
+    <row r="2443">
+      <c r="A2443" s="2" t="n">
+        <v>44557.54185185185</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" s="2" t="n">
+        <v>44557.54681712963</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" s="2" t="n">
+        <v>44557.5834837963</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" s="2" t="n">
+        <v>44557.58908564815</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" s="2" t="n">
+        <v>44557.70850694443</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" s="2" t="n">
+        <v>44557.70924768518</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Last_Updated.xlsx
+++ b/Last_Updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2448"/>
+  <dimension ref="A1:B2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24919,6 +24919,356 @@
         </is>
       </c>
     </row>
+    <row r="2449">
+      <c r="A2449" s="2" t="n">
+        <v>44557.7141550926</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" s="2" t="n">
+        <v>44557.7461574074</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" s="2" t="n">
+        <v>44557.75177083333</v>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" s="2" t="n">
+        <v>44557.87766203703</v>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" s="2" t="n">
+        <v>44557.88491898148</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" s="2" t="n">
+        <v>44558.20869212963</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" s="2" t="n">
+        <v>44558.21902777778</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" s="2" t="n">
+        <v>44558.58339120371</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" s="2" t="n">
+        <v>44558.5834837963</v>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" s="2" t="n">
+        <v>44558.58893518519</v>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" s="2" t="n">
+        <v>44558.59116898148</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" s="2" t="n">
+        <v>44559.58362268518</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" s="2" t="n">
+        <v>44559.58921296296</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" s="2" t="n">
+        <v>44560.20862268518</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" s="2" t="n">
+        <v>44560.21383101852</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" s="2" t="n">
+        <v>44560.41203703704</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" s="2" t="n">
+        <v>44560.41795138889</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" s="2" t="n">
+        <v>44560.58329861111</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" s="2" t="n">
+        <v>44560.5834837963</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" s="2" t="n">
+        <v>44560.5888425926</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" s="2" t="n">
+        <v>44560.59152777777</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" s="2" t="n">
+        <v>44561.20866898148</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" s="2" t="n">
+        <v>44561.4234375</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" s="2" t="n">
+        <v>44561.42888888889</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" s="2" t="n">
+        <v>44561.54184027778</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" s="2" t="n">
+        <v>44561.54700231483</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" s="2" t="n">
+        <v>44561.5834837963</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" s="2" t="n">
+        <v>44561.58859953703</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" s="2" t="n">
+        <v>44563.71790509259</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" s="2" t="n">
+        <v>44563.71961805555</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" s="2" t="n">
+        <v>44563.72133101852</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" s="2" t="n">
+        <v>44563.72393518518</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" s="2" t="n">
+        <v>44563.72730324074</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" s="2" t="n">
+        <v>44563.72784722222</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" s="2" t="n">
+        <v>44563.73375</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Last_Updated.xlsx
+++ b/Last_Updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2483"/>
+  <dimension ref="A1:B2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25269,6 +25269,16 @@
         </is>
       </c>
     </row>
+    <row r="2484">
+      <c r="A2484" s="2" t="n">
+        <v>44563.87519675926</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Last_Updated.xlsx
+++ b/Last_Updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2484"/>
+  <dimension ref="A1:B2486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25279,6 +25279,26 @@
         </is>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" s="2" t="n">
+        <v>44563.88137731481</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" s="2" t="n">
+        <v>44563.88932870371</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Last_Updated.xlsx
+++ b/Last_Updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2486"/>
+  <dimension ref="A1:B2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25299,6 +25299,36 @@
         </is>
       </c>
     </row>
+    <row r="2487">
+      <c r="A2487" s="2" t="n">
+        <v>44563.90484953704</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" s="2" t="n">
+        <v>44563.90510416667</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" s="2" t="n">
+        <v>44563.91324074074</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Last_Updated.xlsx
+++ b/Last_Updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2489"/>
+  <dimension ref="A1:B2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25329,6 +25329,186 @@
         </is>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" s="2" t="n">
+        <v>44563.92744212963</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" s="2" t="n">
+        <v>44563.93055555555</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" s="2" t="n">
+        <v>44563.93125</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" s="2" t="n">
+        <v>44563.93253472223</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" s="2" t="n">
+        <v>44564.20869212963</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" s="2" t="n">
+        <v>44564.58358796296</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" s="2" t="n">
+        <v>44564.58488425926</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" s="2" t="n">
+        <v>44564.79607638889</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" s="2" t="n">
+        <v>44564.79733796296</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" s="2" t="n">
+        <v>44564.82525462963</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" s="2" t="n">
+        <v>44564.83916666666</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" s="2" t="n">
+        <v>44564.84918981481</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" s="2" t="n">
+        <v>44564.85200231482</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" s="2" t="n">
+        <v>44564.85327546296</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" s="2" t="n">
+        <v>44564.85366898148</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" s="2" t="n">
+        <v>44564.85939814815</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" s="2" t="n">
+        <v>44564.86420138889</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" s="2" t="n">
+        <v>44564.86722222222</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Last_Updated.xlsx
+++ b/Last_Updated.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2507"/>
+  <dimension ref="A1:B2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25509,6 +25509,26 @@
         </is>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" s="2" t="n">
+        <v>44564.87517361111</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>started</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" s="2" t="n">
+        <v>44564.8758912037</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>finished</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
